--- a/Sufficient data/forecast_summary_B08XY9146V.xlsx
+++ b/Sufficient data/forecast_summary_B08XY9146V.xlsx
@@ -481,27 +481,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.313287838466843</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -516,27 +516,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.545772190316897</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -551,27 +551,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1.467065307167384</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -586,27 +586,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1.4937112874487</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -621,27 +621,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.48469037038604</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -656,27 +656,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.487744374922269</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -691,27 +691,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1.486710450805405</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.487060482728001</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -761,27 +761,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.486941980465758</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -796,27 +796,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.486982099052807</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -831,27 +831,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.486968517024951</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -866,27 +866,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.486973115179927</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -901,27 +901,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.486971558488289</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -936,27 +936,27 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1.486972085501595</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -971,27 +971,27 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.486971907082814</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1006,27 +1006,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1.48697196748596</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-10-13</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
